--- a/OPM经济数值/活动_2_小猪存钱罐.xlsx
+++ b/OPM经济数值/活动_2_小猪存钱罐.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oas/Documents/work/github/OPM_Excel/OPM经济数值/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E24305-8F6D-4CE8-B6FB-EE63CB461A4C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37840" yWindow="480" windowWidth="38400" windowHeight="20080"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,15 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,14 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奖励1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剩余价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,23 +194,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pack,302|100;pack,303|51;cash,10|100;cash,30|48</t>
+    <t>高级招募令</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pack,302|100;pack,303|100;cash,10|100;cash,30|100;cash,50|50</t>
+    <t>高级招募令的碎片</t>
+    <rPh sb="0" eb="1">
+      <t>gao'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhao'mu'ling</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>sui'pia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pack,302|100;pack,303|200;pack,304|20;cash,10|110;cash,30|100;cash,50|50;prop,403,1|20</t>
+    <t>饰品概率</t>
+    <rPh sb="0" eb="1">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gai'lv</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用</t>
+    <rPh sb="0" eb="1">
+      <t>yin'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励方案：每个悬赏怪有5份奖励：1份固定现金，1份保底三星饰品，3份随机奖励</t>
+    <rPh sb="0" eb="1">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'ge</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xuan'shang'guai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>jiang'li</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian'jin</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>bao'di</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>san'xing</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>shi'pin</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>jiang'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定现金奖励</t>
+    <rPh sb="0" eb="1">
+      <t>gu'ding</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xian'jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保底三星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>bao'di</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>san'xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +365,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -261,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -269,11 +400,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,13 +437,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -326,13 +490,23 @@
           <cell r="A1" t="str">
             <v>代币</v>
           </cell>
-          <cell r="B1"/>
-          <cell r="C1"/>
-          <cell r="D1"/>
-          <cell r="E1"/>
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+          <cell r="C1">
+            <v>0</v>
+          </cell>
+          <cell r="D1">
+            <v>0</v>
+          </cell>
+          <cell r="E1">
+            <v>0</v>
+          </cell>
         </row>
         <row r="2">
-          <cell r="A2"/>
+          <cell r="A2">
+            <v>0</v>
+          </cell>
           <cell r="B2" t="str">
             <v>经验</v>
           </cell>
@@ -350,7 +524,9 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3"/>
+          <cell r="A3">
+            <v>0</v>
+          </cell>
           <cell r="B3" t="str">
             <v>现金</v>
           </cell>
@@ -368,7 +544,9 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4"/>
+          <cell r="A4">
+            <v>0</v>
+          </cell>
           <cell r="B4" t="str">
             <v>体力</v>
           </cell>
@@ -383,7 +561,9 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5"/>
+          <cell r="A5">
+            <v>0</v>
+          </cell>
           <cell r="B5" t="str">
             <v>泽尼尔币</v>
           </cell>
@@ -398,7 +578,9 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6"/>
+          <cell r="A6">
+            <v>0</v>
+          </cell>
           <cell r="B6" t="str">
             <v>公会贡献</v>
           </cell>
@@ -413,7 +595,9 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7"/>
+          <cell r="A7">
+            <v>0</v>
+          </cell>
           <cell r="B7" t="str">
             <v>副本代币</v>
           </cell>
@@ -428,7 +612,9 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8"/>
+          <cell r="A8">
+            <v>0</v>
+          </cell>
           <cell r="B8" t="str">
             <v>强者之路货币</v>
           </cell>
@@ -443,11 +629,15 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9"/>
+          <cell r="A9">
+            <v>0</v>
+          </cell>
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
-          <cell r="C9"/>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -459,11 +649,15 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10"/>
+          <cell r="A10">
+            <v>0</v>
+          </cell>
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
-          <cell r="C10"/>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
@@ -472,23 +666,43 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11"/>
-          <cell r="B11"/>
-          <cell r="C11"/>
-          <cell r="D11"/>
-          <cell r="E11"/>
+          <cell r="A11">
+            <v>0</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>其他类型</v>
           </cell>
-          <cell r="B12"/>
-          <cell r="C12"/>
-          <cell r="D12"/>
-          <cell r="E12"/>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
-          <cell r="A13"/>
+          <cell r="A13">
+            <v>0</v>
+          </cell>
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
           </cell>
@@ -506,7 +720,9 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14"/>
+          <cell r="A14">
+            <v>0</v>
+          </cell>
           <cell r="B14" t="str">
             <v>随机2星饰品</v>
           </cell>
@@ -524,7 +740,9 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15"/>
+          <cell r="A15">
+            <v>0</v>
+          </cell>
           <cell r="B15" t="str">
             <v>随机3星饰品</v>
           </cell>
@@ -542,7 +760,9 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16"/>
+          <cell r="A16">
+            <v>0</v>
+          </cell>
           <cell r="B16" t="str">
             <v>随机4星饰品</v>
           </cell>
@@ -560,7 +780,9 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17"/>
+          <cell r="A17">
+            <v>0</v>
+          </cell>
           <cell r="B17" t="str">
             <v>随机5星饰品</v>
           </cell>
@@ -578,7 +800,9 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18"/>
+          <cell r="A18">
+            <v>0</v>
+          </cell>
           <cell r="B18" t="str">
             <v>随机图A碎片</v>
           </cell>
@@ -590,7 +814,9 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19"/>
+          <cell r="A19">
+            <v>0</v>
+          </cell>
           <cell r="B19" t="str">
             <v>随机图B碎片</v>
           </cell>
@@ -602,7 +828,9 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20"/>
+          <cell r="A20">
+            <v>0</v>
+          </cell>
           <cell r="B20" t="str">
             <v>随机图C碎片</v>
           </cell>
@@ -614,11 +842,21 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21"/>
-          <cell r="B21"/>
-          <cell r="C21"/>
-          <cell r="D21"/>
-          <cell r="E21"/>
+          <cell r="A21">
+            <v>0</v>
+          </cell>
+          <cell r="B21">
+            <v>0</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -627,8 +865,12 @@
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
-          <cell r="C22"/>
-          <cell r="D22"/>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -637,12 +879,18 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23"/>
+          <cell r="A23">
+            <v>0</v>
+          </cell>
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
-          <cell r="C23"/>
-          <cell r="D23"/>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -651,12 +899,18 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24"/>
+          <cell r="A24">
+            <v>0</v>
+          </cell>
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
-          <cell r="C24"/>
-          <cell r="D24"/>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -665,12 +919,18 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25"/>
+          <cell r="A25">
+            <v>0</v>
+          </cell>
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
-          <cell r="C25"/>
-          <cell r="D25"/>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -679,12 +939,18 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26"/>
+          <cell r="A26">
+            <v>0</v>
+          </cell>
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
-          <cell r="C26"/>
-          <cell r="D26"/>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -693,12 +959,18 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27"/>
+          <cell r="A27">
+            <v>0</v>
+          </cell>
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
-          <cell r="C27"/>
-          <cell r="D27"/>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -707,11 +979,15 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28"/>
+          <cell r="A28">
+            <v>0</v>
+          </cell>
           <cell r="B28" t="str">
             <v>技能碎片</v>
           </cell>
-          <cell r="C28"/>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
           <cell r="D28" t="str">
             <v>prop,403</v>
           </cell>
@@ -723,27 +999,55 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29"/>
-          <cell r="B29"/>
-          <cell r="C29"/>
-          <cell r="D29"/>
-          <cell r="E29"/>
+          <cell r="A29">
+            <v>0</v>
+          </cell>
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
-          <cell r="A30"/>
-          <cell r="B30"/>
-          <cell r="C30"/>
-          <cell r="D30"/>
-          <cell r="E30"/>
+          <cell r="A30">
+            <v>0</v>
+          </cell>
+          <cell r="B30">
+            <v>0</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>道具表</v>
           </cell>
-          <cell r="B31"/>
-          <cell r="C31"/>
-          <cell r="D31"/>
-          <cell r="E31"/>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -895,7 +1199,9 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
-          <cell r="E39"/>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2610,7 +2916,9 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
-          <cell r="E134"/>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
@@ -2625,51 +2933,77 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
-          <cell r="E135"/>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
-          <cell r="B136"/>
-          <cell r="C136"/>
+          <cell r="B136">
+            <v>0</v>
+          </cell>
+          <cell r="C136">
+            <v>0</v>
+          </cell>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
-          <cell r="E136"/>
+          <cell r="E136">
+            <v>0</v>
+          </cell>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
-          <cell r="B137"/>
-          <cell r="C137"/>
+          <cell r="B137">
+            <v>0</v>
+          </cell>
+          <cell r="C137">
+            <v>0</v>
+          </cell>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
-          <cell r="E137"/>
+          <cell r="E137">
+            <v>0</v>
+          </cell>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
-          <cell r="B138"/>
-          <cell r="C138"/>
+          <cell r="B138">
+            <v>0</v>
+          </cell>
+          <cell r="C138">
+            <v>0</v>
+          </cell>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
-          <cell r="E138"/>
+          <cell r="E138">
+            <v>0</v>
+          </cell>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
-          <cell r="B139"/>
-          <cell r="C139"/>
+          <cell r="B139">
+            <v>0</v>
+          </cell>
+          <cell r="C139">
+            <v>0</v>
+          </cell>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
-          <cell r="E139"/>
+          <cell r="E139">
+            <v>0</v>
+          </cell>
         </row>
         <row r="140">
           <cell r="A140">
@@ -2678,11 +3012,15 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
-          <cell r="C140"/>
+          <cell r="C140">
+            <v>0</v>
+          </cell>
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
-          <cell r="E140"/>
+          <cell r="E140">
+            <v>0</v>
+          </cell>
         </row>
         <row r="141">
           <cell r="A141">
@@ -2697,7 +3035,9 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
-          <cell r="E141"/>
+          <cell r="E141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
@@ -2712,7 +3052,9 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
-          <cell r="E142"/>
+          <cell r="E142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -2727,7 +3069,9 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
-          <cell r="E143"/>
+          <cell r="E143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
@@ -2742,7 +3086,9 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
-          <cell r="E144"/>
+          <cell r="E144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
@@ -2757,7 +3103,9 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
-          <cell r="E145"/>
+          <cell r="E145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
@@ -2772,7 +3120,9 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
-          <cell r="E146"/>
+          <cell r="E146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
@@ -2787,7 +3137,9 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
-          <cell r="E147"/>
+          <cell r="E147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
@@ -2802,7 +3154,9 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
-          <cell r="E148"/>
+          <cell r="E148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
@@ -2817,7 +3171,9 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
-          <cell r="E149"/>
+          <cell r="E149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
@@ -2832,7 +3188,9 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
-          <cell r="E150"/>
+          <cell r="E150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
@@ -2847,7 +3205,9 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
-          <cell r="E151"/>
+          <cell r="E151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="A152">
@@ -2862,7 +3222,9 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
-          <cell r="E152"/>
+          <cell r="E152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="A153">
@@ -2877,7 +3239,9 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
-          <cell r="E153"/>
+          <cell r="E153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="A154">
@@ -2892,7 +3256,9 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
-          <cell r="E154"/>
+          <cell r="E154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
@@ -2907,7 +3273,9 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
-          <cell r="E155"/>
+          <cell r="E155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
@@ -2922,7 +3290,9 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
-          <cell r="E156"/>
+          <cell r="E156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3196,7 +3566,9 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
-          <cell r="C171"/>
+          <cell r="C171">
+            <v>0</v>
+          </cell>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -3480,20 +3852,38 @@
           </cell>
         </row>
         <row r="188">
-          <cell r="A188"/>
-          <cell r="B188"/>
-          <cell r="C188"/>
-          <cell r="D188"/>
-          <cell r="E188"/>
+          <cell r="A188">
+            <v>0</v>
+          </cell>
+          <cell r="B188">
+            <v>0</v>
+          </cell>
+          <cell r="C188">
+            <v>0</v>
+          </cell>
+          <cell r="D188">
+            <v>0</v>
+          </cell>
+          <cell r="E188">
+            <v>0</v>
+          </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
           </cell>
-          <cell r="B189"/>
-          <cell r="C189"/>
-          <cell r="D189"/>
-          <cell r="E189"/>
+          <cell r="B189">
+            <v>0</v>
+          </cell>
+          <cell r="C189">
+            <v>0</v>
+          </cell>
+          <cell r="D189">
+            <v>0</v>
+          </cell>
+          <cell r="E189">
+            <v>0</v>
+          </cell>
         </row>
         <row r="190">
           <cell r="A190">
@@ -4846,24 +5236,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4883,7 +5273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -4898,13 +5288,13 @@
       </c>
       <c r="E4" s="4">
         <f>A20*10000</f>
-        <v>5000</v>
+        <v>3333</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -4919,13 +5309,13 @@
       </c>
       <c r="E5" s="4">
         <f>E4</f>
-        <v>5000</v>
+        <v>3333</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -4940,94 +5330,94 @@
       </c>
       <c r="E6" s="4">
         <f>E5</f>
-        <v>5000</v>
+        <v>3333</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <f>A12/12</f>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <f>A16*A14</f>
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <f>A18*A20</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>59.994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>22500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <f>A24/A22</f>
-        <v>250</v>
+        <f>40/A20</f>
+        <v>120.01200120012001</v>
       </c>
     </row>
   </sheetData>
@@ -5038,682 +5428,870 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A695D218-490E-4B85-B873-DE3C26C99617}">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
         <v>122</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>D11&amp;";"&amp;H11&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5</f>
-        <v>coin,2000;pack,302;pack,125;pack,125;pack,125</v>
+        <f>D13&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5</f>
+        <v>coin,1000;pack,125;pack,125;pack,125</v>
       </c>
       <c r="D2" s="1">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+        <f>INT(D4*0.6)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
         <v>123</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C4" si="0">D12&amp;";"&amp;H12&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6</f>
-        <v>coin,2000;pack,303;pack,126;pack,126;pack,126</v>
+        <f t="shared" ref="C3:C4" si="0">D14&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6</f>
+        <v>coin,1000;pack,126;pack,126;pack,126</v>
       </c>
       <c r="D3" s="1">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+        <f>INT(D4*0.75)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
         <v>124</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="10">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>coin,2000;pack,303;pack,127;pack,127;pack,127</v>
+        <v>coin,1000;pack,127;pack,127;pack,127</v>
       </c>
       <c r="D4" s="1">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+        <f>INT(活动地图!A26)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
         <v>125</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>L11</f>
-        <v>pack,302|100;pack,303|51;cash,10|100;cash,30|48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+        <f>K20</f>
+        <v>pack,302|90;pack,303|20;pack,304|0;cash,25|50;cash,50|10;cash,100|0;prop,403,1|0;prop,702,1|0;prop,704,5|10;prop,704,10|0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
         <v>126</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" ref="C6:C7" si="1">L12</f>
-        <v>pack,302|100;pack,303|100;cash,10|100;cash,30|100;cash,50|50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+        <f>L20</f>
+        <v>pack,302|100;pack,303|80;pack,304|0;cash,25|50;cash,50|50;cash,100|0;prop,403,1|5;prop,702,1|0;prop,704,5|10;prop,704,10|2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
         <v>127</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>pack,302|100;pack,303|200;pack,304|20;cash,10|110;cash,30|100;cash,50|50;prop,403,1|20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <f>M20</f>
+        <v>pack,302|80;pack,303|150;pack,304|5;cash,25|70;cash,50|50;cash,100|5;prop,403,1|10;prop,702,1|1;prop,704,5|10;prop,704,10|10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C11" s="6">
-        <f>VLOOKUP(A11,价值表!$B:$G,6,0)*B11</f>
-        <v>40</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>VLOOKUP(A11,价值表!$B:$G,3,0)&amp;","&amp;B11</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <f>VLOOKUP(E11,价值表!$B:$G,6,0)*F11</f>
-        <v>15</v>
-      </c>
-      <c r="H11" s="1" t="str">
-        <f>VLOOKUP(E11,价值表!$B:$G,3,0)</f>
-        <v>pack,302</v>
-      </c>
-      <c r="I11" s="1">
-        <f>D2-C11-G11</f>
-        <v>65</v>
-      </c>
-      <c r="J11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
-        <f>I11/J11</f>
-        <v>21.666666666666668</v>
-      </c>
-      <c r="L11" s="1" t="str">
-        <f>K25</f>
-        <v>pack,302|100;pack,303|51;cash,10|100;cash,30|48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2000</v>
-      </c>
-      <c r="C12" s="6">
-        <f>VLOOKUP(A12,价值表!$B:$G,6,0)*B12</f>
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>VLOOKUP(A12,价值表!$B:$G,3,0)&amp;","&amp;B12</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <f>VLOOKUP(E12,价值表!$B:$G,6,0)*F12</f>
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>VLOOKUP(E12,价值表!$B:$G,3,0)</f>
-        <v>pack,303</v>
-      </c>
-      <c r="I12" s="1">
-        <f>D3-C12-G12</f>
-        <v>90</v>
-      </c>
-      <c r="J12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" ref="K12:K13" si="2">I12/J12</f>
-        <v>30</v>
-      </c>
-      <c r="L12" s="1" t="str">
-        <f>L25</f>
-        <v>pack,302|100;pack,303|100;cash,10|100;cash,30|100;cash,50|50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C13" s="6">
         <f>VLOOKUP(A13,价值表!$B:$G,6,0)*B13</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="str">
         <f>VLOOKUP(A13,价值表!$B:$G,3,0)&amp;","&amp;B13</f>
-        <v>coin,2000</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>coin,1000</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <f>VLOOKUP(E13,价值表!$B:$G,6,0)*F13</f>
+        <v>15</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f>VLOOKUP(E13,价值表!$B:$G,3,0)</f>
+        <v>pack,302</v>
+      </c>
+      <c r="I13" s="1">
+        <f>D2-C13</f>
+        <v>52</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1">
+        <f>INT(I13/J13)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="6">
+        <f>VLOOKUP(A14,价值表!$B:$G,6,0)*B14</f>
         <v>20</v>
       </c>
-      <c r="F13" s="1">
+      <c r="D14" s="1" t="str">
+        <f>VLOOKUP(A14,价值表!$B:$G,3,0)&amp;","&amp;B14</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
-        <f>VLOOKUP(E13,价值表!$B:$G,6,0)*F13</f>
+      <c r="G14" s="17">
+        <f>VLOOKUP(E14,价值表!$B:$G,6,0)*F14</f>
+        <v>15</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f>VLOOKUP(E14,价值表!$B:$G,3,0)</f>
+        <v>pack,302</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:I15" si="1">D3-C14</f>
+        <v>70</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <f>INT(I14/J14)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="6">
+        <f>VLOOKUP(A15,价值表!$B:$G,6,0)*B15</f>
+        <v>20</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>VLOOKUP(A15,价值表!$B:$G,3,0)&amp;","&amp;B15</f>
+        <v>coin,1000</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <f>VLOOKUP(E15,价值表!$B:$G,6,0)*F15</f>
         <v>50</v>
       </c>
-      <c r="H13" s="1" t="str">
-        <f>VLOOKUP(E13,价值表!$B:$G,3,0)</f>
+      <c r="H15" s="16" t="str">
+        <f>VLOOKUP(E15,价值表!$B:$G,3,0)</f>
         <v>pack,303</v>
       </c>
-      <c r="I13" s="1">
-        <f>D4-C13-G13</f>
-        <v>160</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <f>INT(I15/J15)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="D18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9">
+        <f>E21+E22</f>
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="G18" s="9">
+        <f>G21+G22</f>
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="I18" s="9">
+        <f>I21+I22</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1">
+        <f>SUM(D21:D33)</f>
+        <v>180</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUMPRODUCT($C$21:$C$33,E21:E33)</f>
+        <v>26.25</v>
+      </c>
+      <c r="F19" s="1">
+        <f>SUM(F21:F33)</f>
+        <v>297</v>
+      </c>
+      <c r="G19" s="1">
+        <f>SUMPRODUCT($C$21:$C$33,G21:G33)</f>
+        <v>35.774410774410782</v>
+      </c>
+      <c r="H19" s="1">
+        <f>SUM(H21:H33)</f>
+        <v>391</v>
+      </c>
+      <c r="I19" s="1">
+        <f>SUMPRODUCT($C$21:$C$33,I21:I33)</f>
+        <v>50.063938618925825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="1" t="str">
+        <f>K21&amp;";"&amp;K22&amp;";"&amp;K23&amp;";"&amp;K24&amp;";"&amp;K25&amp;";"&amp;K26&amp;";"&amp;K27&amp;";"&amp;K28&amp;";"&amp;K29&amp;";"&amp;K30</f>
+        <v>pack,302|90;pack,303|20;pack,304|0;cash,25|50;cash,50|10;cash,100|0;prop,403,1|0;prop,702,1|0;prop,704,5|10;prop,704,10|0</v>
+      </c>
+      <c r="L20" s="1" t="str">
+        <f t="shared" ref="L20:M20" si="2">L21&amp;";"&amp;L22&amp;";"&amp;L23&amp;";"&amp;L24&amp;";"&amp;L25&amp;";"&amp;L26&amp;";"&amp;L27&amp;";"&amp;L28&amp;";"&amp;L29&amp;";"&amp;L30</f>
+        <v>pack,302|100;pack,303|80;pack,304|0;cash,25|50;cash,50|50;cash,100|0;prop,403,1|5;prop,702,1|0;prop,704,5|10;prop,704,10|2</v>
+      </c>
+      <c r="M20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f>M25</f>
-        <v>pack,302|100;pack,303|200;pack,304|20;cash,10|110;cash,30|100;cash,50|50;prop,403,1|20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1">
-        <f>SUM(D18:D24)</f>
-        <v>299</v>
-      </c>
-      <c r="E16" s="1">
-        <f>SUMPRODUCT($C$18:$C$24,E18:E24)</f>
-        <v>21.705685618729095</v>
-      </c>
-      <c r="F16" s="1">
-        <f>SUM(F18:F24)</f>
-        <v>450</v>
-      </c>
-      <c r="G16" s="1">
-        <f>SUMPRODUCT($C$18:$C$24,G18:G24)</f>
-        <v>28.888888888888886</v>
-      </c>
-      <c r="H16" s="1">
-        <f>SUM(H18:H24)</f>
+        <v>pack,302|80;pack,303|150;pack,304|5;cash,25|70;cash,50|50;cash,100|5;prop,403,1|10;prop,702,1|1;prop,704,5|10;prop,704,10|10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <f>VLOOKUP(A21,价值表!$B:$G,6,0)*B21</f>
+        <v>15</v>
+      </c>
+      <c r="D21" s="14">
+        <v>90</v>
+      </c>
+      <c r="E21" s="15">
+        <f t="shared" ref="E21:E30" si="3">D21/$D$19</f>
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="14">
+        <v>100</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" ref="G21:G30" si="4">F21/$F$19</f>
+        <v>0.33670033670033672</v>
+      </c>
+      <c r="H21" s="14">
+        <v>80</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" ref="I21:I30" si="5">H21/$H$19</f>
+        <v>0.20460358056265984</v>
+      </c>
+      <c r="J21" s="13" t="str">
+        <f>VLOOKUP(A21,价值表!$B:$G,3,0)</f>
+        <v>pack,302</v>
+      </c>
+      <c r="K21" s="1" t="str">
+        <f>IF(D21&lt;&gt;"",$J21&amp;"|"&amp;D21,"")</f>
+        <v>pack,302|90</v>
+      </c>
+      <c r="L21" s="1" t="str">
+        <f>IF(F21&lt;&gt;"",$J21&amp;"|"&amp;F21,"")</f>
+        <v>pack,302|100</v>
+      </c>
+      <c r="M21" s="1" t="str">
+        <f>IF(H21&lt;&gt;"",$J21&amp;"|"&amp;H21,"")</f>
+        <v>pack,302|80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14">
+        <f>VLOOKUP(A22,价值表!$B:$G,6,0)*B22</f>
+        <v>50</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20</v>
+      </c>
+      <c r="E22" s="15">
+        <f t="shared" si="3"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F22" s="14">
+        <v>80</v>
+      </c>
+      <c r="G22" s="15">
+        <f t="shared" si="4"/>
+        <v>0.26936026936026936</v>
+      </c>
+      <c r="H22" s="14">
+        <v>150</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="5"/>
+        <v>0.38363171355498721</v>
+      </c>
+      <c r="J22" s="13" t="str">
+        <f>VLOOKUP(A22,价值表!$B:$G,3,0)</f>
+        <v>pack,303</v>
+      </c>
+      <c r="K22" s="1" t="str">
+        <f t="shared" ref="K22:K30" si="6">IF(D22&lt;&gt;"",$J22&amp;"|"&amp;D22,"")</f>
+        <v>pack,303|20</v>
+      </c>
+      <c r="L22" s="1" t="str">
+        <f t="shared" ref="L22:L30" si="7">IF(F22&lt;&gt;"",$J22&amp;"|"&amp;F22,"")</f>
+        <v>pack,303|80</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M22:M30" si="8">IF(H22&lt;&gt;"",$J22&amp;"|"&amp;H22,"")</f>
+        <v>pack,303|150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <f>VLOOKUP(A23,价值表!$B:$G,6,0)*B23</f>
         <v>600</v>
       </c>
-      <c r="I16" s="1">
-        <f>SUMPRODUCT($C$18:$C$24,I18:I24)</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
         <v>5</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="I23" s="15">
+        <f t="shared" si="5"/>
+        <v>1.278772378516624E-2</v>
+      </c>
+      <c r="J23" s="13" t="str">
+        <f>VLOOKUP(A23,价值表!$B:$G,3,0)</f>
+        <v>pack,304</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>pack,304|0</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>pack,304|0</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>pack,304|5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="14">
         <v>25</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C24" s="14">
+        <f>VLOOKUP(A24,价值表!$B:$G,6,0)*B24</f>
+        <v>25</v>
+      </c>
+      <c r="D24" s="14">
+        <v>50</v>
+      </c>
+      <c r="E24" s="15">
+        <f t="shared" si="3"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F24" s="14">
+        <v>50</v>
+      </c>
+      <c r="G24" s="15">
+        <f t="shared" si="4"/>
+        <v>0.16835016835016836</v>
+      </c>
+      <c r="H24" s="14">
+        <v>70</v>
+      </c>
+      <c r="I24" s="15">
+        <f t="shared" si="5"/>
+        <v>0.17902813299232737</v>
+      </c>
+      <c r="J24" s="13" t="str">
+        <f>VLOOKUP(A24,价值表!$B:$G,3,0)&amp;","&amp;B24</f>
+        <v>cash,25</v>
+      </c>
+      <c r="K24" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,25|50</v>
+      </c>
+      <c r="L24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>cash,25|50</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>cash,25|70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="14">
+        <v>50</v>
+      </c>
+      <c r="C25" s="14">
+        <f>VLOOKUP(A25,价值表!$B:$G,6,0)*B25</f>
+        <v>50</v>
+      </c>
+      <c r="D25" s="14">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F25" s="14">
+        <v>50</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="4"/>
+        <v>0.16835016835016836</v>
+      </c>
+      <c r="H25" s="14">
+        <v>50</v>
+      </c>
+      <c r="I25" s="15">
+        <f t="shared" si="5"/>
+        <v>0.12787723785166241</v>
+      </c>
+      <c r="J25" s="13" t="str">
+        <f>VLOOKUP(A25,价值表!$B:$G,3,0)&amp;","&amp;B25</f>
+        <v>cash,50</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,50|10</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>cash,50|50</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>cash,50|50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="14">
+        <v>100</v>
+      </c>
+      <c r="C26" s="14">
+        <f>VLOOKUP(A26,价值表!$B:$G,6,0)*B26</f>
+        <v>100</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>5</v>
+      </c>
+      <c r="I26" s="15">
+        <f t="shared" si="5"/>
+        <v>1.278772378516624E-2</v>
+      </c>
+      <c r="J26" s="13" t="str">
+        <f>VLOOKUP(A26,价值表!$B:$G,3,0)&amp;","&amp;B26</f>
+        <v>cash,100</v>
+      </c>
+      <c r="K26" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>cash,100|0</v>
+      </c>
+      <c r="L26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>cash,100|0</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>cash,100|5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="14">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
-        <f>VLOOKUP(A18,价值表!$B:$G,6,0)*B18</f>
-        <v>15</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C27" s="14">
+        <f>VLOOKUP(A27,价值表!$B:$G,6,0)*B27</f>
         <v>100</v>
       </c>
-      <c r="E18" s="8">
-        <f>D18/$D$16</f>
-        <v>0.33444816053511706</v>
-      </c>
-      <c r="F18" s="1">
-        <v>100</v>
-      </c>
-      <c r="G18" s="8">
-        <f>F18/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H18" s="1">
-        <v>100</v>
-      </c>
-      <c r="I18" s="8">
-        <f>H18/$H$16</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f>VLOOKUP(A18,价值表!$B:$G,3,0)</f>
-        <v>pack,302</v>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f>IF(D18&lt;&gt;"",$J18&amp;"|"&amp;D18,"")</f>
-        <v>pack,302|100</v>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f>IF(F18&lt;&gt;"",$J18&amp;"|"&amp;F18,"")</f>
-        <v>pack,302|100</v>
-      </c>
-      <c r="M18" s="1" t="str">
-        <f>IF(H18&lt;&gt;"",$J18&amp;"|"&amp;H18,"")</f>
-        <v>pack,302|100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>5</v>
+      </c>
+      <c r="G27" s="15">
+        <f t="shared" si="4"/>
+        <v>1.6835016835016835E-2</v>
+      </c>
+      <c r="H27" s="14">
+        <v>10</v>
+      </c>
+      <c r="I27" s="15">
+        <f t="shared" si="5"/>
+        <v>2.557544757033248E-2</v>
+      </c>
+      <c r="J27" s="13" t="str">
+        <f>VLOOKUP(A27,价值表!$B:$G,3,0)&amp;","&amp;B27</f>
+        <v>prop,403,1</v>
+      </c>
+      <c r="K27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>prop,403,1|0</v>
+      </c>
+      <c r="L27" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,403,1|5</v>
+      </c>
+      <c r="M27" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>prop,403,1|10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="14">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <f>VLOOKUP(A19,价值表!$B:$G,6,0)*B19</f>
-        <v>50</v>
-      </c>
-      <c r="D19" s="1">
-        <v>51</v>
-      </c>
-      <c r="E19" s="8">
-        <f>D19/$D$16</f>
-        <v>0.1705685618729097</v>
-      </c>
-      <c r="F19" s="1">
-        <v>100</v>
-      </c>
-      <c r="G19" s="8">
-        <f>F19/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H19" s="1">
-        <v>200</v>
-      </c>
-      <c r="I19" s="8">
-        <f>H19/$H$16</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f>VLOOKUP(A19,价值表!$B:$G,3,0)</f>
-        <v>pack,303</v>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" ref="K19:K24" si="3">IF(D19&lt;&gt;"",$J19&amp;"|"&amp;D19,"")</f>
-        <v>pack,303|51</v>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" ref="L19:L24" si="4">IF(F19&lt;&gt;"",$J19&amp;"|"&amp;F19,"")</f>
-        <v>pack,303|100</v>
-      </c>
-      <c r="M19" s="1" t="str">
-        <f t="shared" ref="M19:M24" si="5">IF(H19&lt;&gt;"",$J19&amp;"|"&amp;H19,"")</f>
-        <v>pack,303|200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C28" s="14">
+        <f>VLOOKUP(A28,价值表!$B:$G,6,0)*B28</f>
+        <v>250</v>
+      </c>
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
         <v>1</v>
       </c>
-      <c r="C20" s="1">
-        <f>VLOOKUP(A20,价值表!$B:$G,6,0)*B20</f>
-        <v>600</v>
-      </c>
-      <c r="E20" s="8">
-        <f>D20/$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f>F20/$F$16</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>20</v>
-      </c>
-      <c r="I20" s="8">
-        <f>H20/$H$16</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f>VLOOKUP(A20,价值表!$B:$G,3,0)</f>
-        <v>pack,304</v>
-      </c>
-      <c r="K20" s="1" t="str">
+      <c r="I28" s="15">
+        <f t="shared" si="5"/>
+        <v>2.5575447570332483E-3</v>
+      </c>
+      <c r="J28" s="13" t="str">
+        <f>VLOOKUP(A28,价值表!$B:$G,3,0)&amp;","&amp;B28</f>
+        <v>prop,702,1</v>
+      </c>
+      <c r="K28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>prop,702,1|0</v>
+      </c>
+      <c r="L28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,702,1|0</v>
+      </c>
+      <c r="M28" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>prop,702,1|1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="14">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14">
+        <f>VLOOKUP(A29,价值表!$B:$G,6,0)*B29</f>
+        <v>62.5</v>
+      </c>
+      <c r="D29" s="14">
+        <v>10</v>
+      </c>
+      <c r="E29" s="15">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L20" s="1" t="str">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="F29" s="14">
+        <v>10</v>
+      </c>
+      <c r="G29" s="15">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M20" s="1" t="str">
+        <v>3.3670033670033669E-2</v>
+      </c>
+      <c r="H29" s="14">
+        <v>10</v>
+      </c>
+      <c r="I29" s="15">
         <f t="shared" si="5"/>
-        <v>pack,304|20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="1">
+        <v>2.557544757033248E-2</v>
+      </c>
+      <c r="J29" s="13" t="str">
+        <f>VLOOKUP(A29,价值表!$B:$G,3,0)&amp;","&amp;B29</f>
+        <v>prop,704,5</v>
+      </c>
+      <c r="K29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>prop,704,5|10</v>
+      </c>
+      <c r="L29" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,704,5|10</v>
+      </c>
+      <c r="M29" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>prop,704,5|10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="14">
         <v>10</v>
       </c>
-      <c r="C21" s="1">
-        <f>VLOOKUP(A21,价值表!$B:$G,6,0)*B21</f>
+      <c r="C30" s="14">
+        <f>VLOOKUP(A30,价值表!$B:$G,6,0)*B30</f>
+        <v>125</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="14">
+        <v>2</v>
+      </c>
+      <c r="G30" s="15">
+        <f t="shared" si="4"/>
+        <v>6.7340067340067337E-3</v>
+      </c>
+      <c r="H30" s="14">
         <v>10</v>
       </c>
-      <c r="D21" s="1">
-        <v>100</v>
-      </c>
-      <c r="E21" s="8">
-        <f>D21/$D$16</f>
-        <v>0.33444816053511706</v>
-      </c>
-      <c r="F21" s="1">
-        <v>100</v>
-      </c>
-      <c r="G21" s="8">
-        <f>F21/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H21" s="1">
-        <v>110</v>
-      </c>
-      <c r="I21" s="8">
-        <f>H21/$H$16</f>
-        <v>0.18333333333333332</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f>VLOOKUP(A21,价值表!$B:$G,3,0)&amp;","&amp;B21</f>
-        <v>cash,10</v>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>cash,10|100</v>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,10|100</v>
-      </c>
-      <c r="M21" s="1" t="str">
+      <c r="I30" s="15">
         <f t="shared" si="5"/>
-        <v>cash,10|110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="1">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1">
-        <f>VLOOKUP(A22,价值表!$B:$G,6,0)*B22</f>
-        <v>30</v>
-      </c>
-      <c r="D22" s="1">
-        <v>48</v>
-      </c>
-      <c r="E22" s="8">
-        <f>D22/$D$16</f>
-        <v>0.16053511705685619</v>
-      </c>
-      <c r="F22" s="1">
-        <v>100</v>
-      </c>
-      <c r="G22" s="8">
-        <f>F22/$F$16</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H22" s="1">
-        <v>100</v>
-      </c>
-      <c r="I22" s="8">
-        <f>H22/$H$16</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f>VLOOKUP(A22,价值表!$B:$G,3,0)&amp;","&amp;B22</f>
-        <v>cash,30</v>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>cash,30|48</v>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,30|100</v>
-      </c>
-      <c r="M22" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>cash,30|100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="1">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1">
-        <f>VLOOKUP(A23,价值表!$B:$G,6,0)*B23</f>
-        <v>50</v>
-      </c>
-      <c r="E23" s="8">
-        <f>D23/$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>50</v>
-      </c>
-      <c r="G23" s="8">
-        <f>F23/$F$16</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="H23" s="1">
-        <v>50</v>
-      </c>
-      <c r="I23" s="8">
-        <f>H23/$H$16</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f>VLOOKUP(A23,价值表!$B:$G,3,0)&amp;","&amp;B23</f>
-        <v>cash,50</v>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>cash,50|50</v>
-      </c>
-      <c r="M23" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>cash,50|50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <f>VLOOKUP(A24,价值表!$B:$G,6,0)*B24</f>
-        <v>100</v>
-      </c>
-      <c r="E24" s="8">
-        <f>D24/$D$16</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <f>F24/$F$16</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="1">
-        <v>20</v>
-      </c>
-      <c r="I24" s="8">
-        <f>H24/$H$16</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f>VLOOKUP(A24,价值表!$B:$G,3,0)&amp;","&amp;B24</f>
-        <v>prop,403,1</v>
-      </c>
-      <c r="K24" s="9" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L24" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M24" s="9" t="str">
-        <f t="shared" si="5"/>
-        <v>prop,403,1|20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>42</v>
+        <v>2.557544757033248E-2</v>
+      </c>
+      <c r="J30" s="13" t="str">
+        <f>VLOOKUP(A30,价值表!$B:$G,3,0)&amp;","&amp;B30</f>
+        <v>prop,704,10</v>
+      </c>
+      <c r="K30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>prop,704,10|0</v>
+      </c>
+      <c r="L30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>prop,704,10|2</v>
+      </c>
+      <c r="M30" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>prop,704,10|10</v>
       </c>
     </row>
   </sheetData>
@@ -5724,14 +6302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A0A886-1BE1-4842-BC52-DC1B2283B594}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J248"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="B18:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="str">

--- a/OPM经济数值/活动_2_小猪存钱罐.xlsx
+++ b/OPM经济数值/活动_2_小猪存钱罐.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-37840" yWindow="480" windowWidth="38400" windowHeight="20080"/>
+    <workbookView xWindow="1360" yWindow="1520" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -4966,9 +4966,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5239,7 +5239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -5431,8 +5431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/OPM经济数值/活动_2_小猪存钱罐.xlsx
+++ b/OPM经济数值/活动_2_小猪存钱罐.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1520" windowWidth="38400" windowHeight="20080" activeTab="1"/>
+    <workbookView xWindow="-38120" yWindow="580" windowWidth="38400" windowHeight="20080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="活动地图" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,29 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>preview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin,1;item,103;cash,1;prop,403,1;prop,704,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin,1;item,103;cash,1;prop,704,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coin,1;item,104;item,103;cash,1;prop,403,1;prop,704,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度</t>
+    <rPh sb="0" eb="1">
+      <t>nan'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +406,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,9 +455,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -458,9 +499,11 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5429,10 +5472,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5467,8 +5510,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>D13&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5</f>
-        <v>coin,1000;pack,125;pack,125;pack,125</v>
+        <f>"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5&amp;";"&amp;"pack,"&amp;A5</f>
+        <v>pack,125;pack,125;pack,125</v>
       </c>
       <c r="D2" s="1">
         <f>INT(D4*0.6)</f>
@@ -5483,8 +5526,8 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" ref="C3:C4" si="0">D14&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6</f>
-        <v>coin,1000;pack,126;pack,126;pack,126</v>
+        <f t="shared" ref="C3:C4" si="0">"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6&amp;";"&amp;"pack,"&amp;A6</f>
+        <v>pack,126;pack,126;pack,126</v>
       </c>
       <c r="D3" s="1">
         <f>INT(D4*0.75)</f>
@@ -5500,7 +5543,7 @@
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>coin,1000;pack,127;pack,127;pack,127</v>
+        <v>pack,127;pack,127;pack,127</v>
       </c>
       <c r="D4" s="1">
         <f>INT(活动地图!A26)</f>
@@ -6292,6 +6335,38 @@
       <c r="M30" s="8" t="str">
         <f t="shared" si="8"/>
         <v>prop,704,10|10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>901030</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>901050</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>901080</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
